--- a/pred_ohlcv/54_21/2020-01-15 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TRX ohlcv.xlsx
@@ -1744,7 +1744,7 @@
         <v>-714642.8045216803</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2159072.76482168</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1911251.940521681</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1927590.380421681</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1927185.925274181</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1946056.154874181</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1953388.414021681</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1873438.438121681</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1891859.40122168</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2451770.9271246</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2442138.20042593</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2416226.30462593</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2532647.54205647</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2532647.54205647</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2267090.21645647</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2261983.359593309</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2003929.215393309</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1298110.864393309</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1324148.650693309</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1334942.821893309</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1268808.899693309</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1268808.899693309</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1268808.899693309</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1553455.955893309</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1511475.917593309</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1397585.132393309</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1397585.132393309</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1289187.894593309</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1290508.665793309</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1290508.665793309</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1289969.49769331</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2897544.31641268</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>371531932.3276418</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>365021337.3619418</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>365021927.3619418</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>365018235.2619418</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>365064000.2421418</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>365357765.6132418</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>365110498.0829418</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>365095743.7376418</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>365099313.8657417</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>365148401.1329417</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>365259668.4435417</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>365246967.9953417</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>365328753.9093417</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>365417771.8753417</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>366320512.1216417</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>366336112.1216417</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>366336068.8880417</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>368768801.2068416</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>369809455.1806417</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>370475252.0494564</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>370105029.2016564</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>371772977.2962818</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>371769138.2262818</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>371784290.6156818</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>371483895.2368221</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>370795627.6725221</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>370807777.3729221</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>370807709.0169221</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>371406428.1738217</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>371438891.4682217</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>371525251.4467217</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>371519675.9680217</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>371465607.9913217</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>371593401.1090217</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>371995952.2496216</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>371912507.0962216</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>371921896.5685216</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>371877594.6577216</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>371808341.0283216</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>371810980.0851216</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>371850473.4872217</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>372123502.7354217</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>372720274.0005217</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>372319774.0005217</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>372288629.7676216</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>372288662.7530217</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>372389299.1313271</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>372390987.7260271</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>372637171.9233374</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>372638171.9233374</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>372597097.5744374</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>373450446.1819374</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>373663319.0273933</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>373318922.4207934</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>373271389.9635934</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>373272511.4907933</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>373285936.4981933</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>373018933.0721933</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>373222685.3514896</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>373237230.0517896</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>373521943.4875826</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>373642326.7154826</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>374658841.2244826</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>376396350.6205826</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>377334437.3991826</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>378879323.1080595</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>378873208.9644595</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>378914962.5948595</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>378915040.0756595</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>379138935.6347594</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>380011680.3996595</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>380012015.3058537</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>379432757.8718536</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>382592034.9693931</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>380611468.0340931</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>381239844.038193</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>381241093.503593</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>380866562.845493</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>380894939.3217991</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>379299634.816399</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>379326222.4217991</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>379326251.461499</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>379619518.4721991</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>379647676.9728942</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>379562132.4924942</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>380129748.7484767</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>379819256.3266839</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>379959536.1462839</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>380537361.5616839</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>380578993.7793839</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>380577606.4338839</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>380518823.3675906</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>378873730.1106906</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>378879476.3017865</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>378867115.7134866</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>378514331.4917747</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>378996272.2450706</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>379217965.6651706</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>379215603.0876673</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>378066672.6113673</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>378317720.8324673</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>378652905.7644618</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>378662191.2307618</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>378603969.6099618</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>378885707.8654618</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>378750608.7052295</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>378754441.2088295</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>378674803.0352295</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>378579109.2662654</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>378749366.0654013</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>378579508.2830371</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>378633465.4465371</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>378560682.5266371</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>378706436.1676371</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>378668186.2970371</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>378755562.2084371</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>378712430.2203372</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>378445751.9682371</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>378830128.7526371</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>378779608.0685371</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>378385414.7004371</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>378441715.5665371</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>377746735.1454371</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>377944489.8150371</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>376804985.9339371</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>376357580.4474371</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>376374001.3521371</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>376398700.7782371</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>376414953.5339813</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>377833881.9831164</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>377697300.1258164</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>377897110.3581164</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>377694273.1935164</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>378412919.4105164</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>378648916.1059387</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>379431776.3793387</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>379348264.1523387</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>379453573.4301795</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>381601809.8031795</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>385703639.8050256</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>385458701.0007256</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>384737805.3944256</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>383857097.8427256</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>385657741.7672256</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>385608715.2701256</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>386466213.3874255</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>385867531.7039255</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>385867985.0295256</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>385867985.0295256</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>386291723.5150256</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>386295124.6150256</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>386295124.6150256</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>387354074.4790256</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>387354074.4790256</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>389728699.5674256</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>390583423.2798256</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>392418551.1624256</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>391726863.9297355</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TRX ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>-515824.7215216804</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2169364.14392168</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2159072.76482168</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2162559.48262168</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1911251.940521681</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1927590.380421681</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1946056.154874181</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1929551.377621681</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1873992.598521681</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1666859.40122168</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1713850.14312168</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1713850.14312168</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2380812.65877752</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2451770.9271246</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2897544.31641268</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>371213936.2603418</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>371531932.3276418</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>371406191.6102418</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>371357210.5661418</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>365021337.3619418</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>365021927.3619418</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>365018235.2619418</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>365064000.2421418</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>365362679.0023418</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>365357765.6132418</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>365110498.0829418</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>365095743.7376418</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>365099313.8657417</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>365148401.1329417</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>365259668.4435417</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>365246967.9953417</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>365435055.4621417</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>365438992.0933417</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>365328753.9093417</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>365437771.8753417</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>365417771.8753417</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>366320512.1216417</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>366336112.1216417</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>366336068.8880417</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>368768801.2068416</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>369809455.1806417</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>370475252.0494564</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>370105029.2016564</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>369612213.7145066</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>371585265.1308818</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>371580477.2962818</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>371772977.2962818</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>371769138.2262818</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>371784290.6156818</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>371462745.6434819</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>371483895.2368221</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>370795627.6725221</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>370807777.3729221</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>370807709.0169221</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>370808041.9975217</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>371406428.1738217</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>371438891.4682217</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>371525251.4467217</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>371530675.9680217</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>371519675.9680217</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>371465607.9913217</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>371593401.1090217</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>371570691.5964217</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>371995952.2496216</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>371912507.0962216</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>371921896.5685216</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>371877594.6577216</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>371808341.0283216</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>371810980.0851216</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>371850473.4872217</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>372123502.7354217</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>372720274.0005217</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>372319774.0005217</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>372288629.7676216</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>372288662.7530217</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>372227126.6128114</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>372164249.5653114</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>372274296.1585271</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>372268237.0054271</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>372408309.4813271</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>372389299.1313271</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>372390987.7260271</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>372672616.1402374</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>372637171.9233374</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>372638171.9233374</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>372597097.5744374</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>373450446.1819374</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>373417005.4197374</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>373369479.7622374</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>373663319.0273933</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>373318922.4207934</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>373271389.9635934</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>373272511.4907933</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>373285936.4981933</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>373018933.0721933</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>373222685.3514896</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>373205815.8166896</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>373237230.0517896</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>373117810.4881896</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>373151740.6755432</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>372879360.4556432</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>373483671.2117826</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>373521943.4875826</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>373642326.7154826</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>374659840.2244826</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>374658841.2244826</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>376397386.9587826</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>376396350.6205826</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>377334437.3991826</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>378984521.0902826</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>378876510.9919595</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>378879323.1080595</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>378873208.9644595</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>378914962.5948595</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>378915040.0756595</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>379138935.6347594</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>380011680.3996595</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>380012015.3058537</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>379315760.1514537</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>379432757.8718536</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>382592034.9693931</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>380611468.0340931</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>381264428.2476931</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>381269055.2114931</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>381239844.038193</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>381241093.503593</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>380866562.845493</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>380894939.3217991</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>380760487.5069991</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>379518151.7158991</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>379299634.816399</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>379326222.4217991</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>379326251.461499</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>379234954.0427991</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>379811347.3025991</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>379619518.4721991</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>379647676.9728942</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>379562132.4924942</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>380129748.7484767</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>379819256.3266839</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>379959536.1462839</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>380537361.5616839</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>380578993.7793839</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>380577606.4338839</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>380518823.3675906</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>378873730.1106906</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>378879476.3017865</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>378867115.7134866</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>378616874.8660706</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>378514331.4917747</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>379024381.7730706</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>378996272.2450706</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>379117965.6651706</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>379217965.6651706</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>379215344.5652705</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>379215603.0876673</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>378066672.6113673</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>378086672.6113673</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>378087503.1345673</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>378317720.8324673</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>378652905.7644618</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>378662191.2307618</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>378603969.6099618</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>378885707.8654618</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>378750608.7052295</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>378754441.2088295</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>378674803.0352295</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>378579109.2662654</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>378749366.0654013</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>378579508.2830371</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>378633465.4465371</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>378560682.5266371</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>378706436.1676371</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>378668186.2970371</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>378755562.2084371</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>378712430.2203372</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>378445751.9682371</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>378830128.7526371</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>378779608.0685371</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>378385414.7004371</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>378441715.5665371</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>377746735.1454371</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>377944489.8150371</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>376804985.9339371</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>376357580.4474371</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>376374001.3521371</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>376398700.7782371</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>376414953.5339813</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>377833881.9831164</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>377697300.1258164</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>377897110.3581164</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>377694273.1935164</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>378412919.4105164</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>378648916.1059387</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>379431776.3793387</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>379348264.1523387</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>379453573.4301795</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>381601809.8031795</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>383860261.9273795</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>384737805.3944256</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>385657741.7672256</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>385716281.0739256</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>385608715.2701256</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>386080957.7137256</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>386050458.0726256</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>386466213.3874255</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>385867531.7039255</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>385867985.0295256</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>385867985.0295256</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>386291723.5150256</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>386295124.6150256</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>386295124.6150256</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>387354074.4790256</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>387354074.4790256</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>389728699.5674256</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>390583423.2798256</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>392418551.1624256</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>391726863.9297355</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
